--- a/final_data/xlsx/results_850_sig.xlsx
+++ b/final_data/xlsx/results_850_sig.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelruland/Documents/studium_paderborn/Bachelorarbeit/data_new/association_rules/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelruland/Documents/studium_paderborn/Bachelorarbeit/BA_thesis/final_data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{22CD5914-C59E-BD47-8F27-FB2C2103CABF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E4553-0976-E144-B464-E112C60A1C77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="19240" yWindow="0" windowWidth="19160" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results_85_sig" sheetId="1" r:id="rId1"/>
+    <sheet name="results_850_sig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="60">
   <si>
     <t>antecedent</t>
   </si>
@@ -43,12 +43,18 @@
     <t>(mother-speech;i_gaze_at;inf_smile)</t>
   </si>
   <si>
+    <t>(mo_smile)</t>
+  </si>
+  <si>
     <t>(mother-speech)</t>
   </si>
   <si>
     <t>(inf_smile)</t>
   </si>
   <si>
+    <t>(m_gaze_at;mother-speech)</t>
+  </si>
+  <si>
     <t>(m_gaze_at;i_gaze_at;inf_smile)</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>(mo_smile;i_gaze_at;inf_smile)</t>
   </si>
   <si>
+    <t>(m_gaze_at_object)</t>
+  </si>
+  <si>
     <t>(mother-speech;inf_smile)</t>
   </si>
   <si>
@@ -70,30 +79,33 @@
     <t>(m_gaze_at)</t>
   </si>
   <si>
+    <t>(mother-speech;i_gaze_at)</t>
+  </si>
+  <si>
     <t>(mo_smile;i_gaze_at;infant_voc)</t>
   </si>
   <si>
+    <t>(m_gaze_at;inf_smile)</t>
+  </si>
+  <si>
     <t>(mo_smile;inf_smile;i_gaze_away)</t>
   </si>
   <si>
     <t>(i_gaze_at;inf_smile)</t>
   </si>
   <si>
-    <t>(m_gaze_at;inf_smile)</t>
-  </si>
-  <si>
     <t>(m_gaze_at;i_gaze_at)</t>
   </si>
   <si>
     <t>(m_gaze_away)</t>
   </si>
   <si>
+    <t>(mo_smile;i_gaze_away)</t>
+  </si>
+  <si>
     <t>(mo_smile;m_gaze_at;i_gaze_at)</t>
   </si>
   <si>
-    <t>(mo_smile)</t>
-  </si>
-  <si>
     <t>(i_gaze_away)</t>
   </si>
   <si>
@@ -103,25 +115,25 @@
     <t>(m_gaze_away;i_gaze_at_object)</t>
   </si>
   <si>
+    <t>(i_gaze_at)</t>
+  </si>
+  <si>
     <t>(m_gaze_at;inf_smile;i_gaze_away)</t>
   </si>
   <si>
-    <t>(m_gaze_at_object)</t>
+    <t>(mo_smile;mother-speech)</t>
+  </si>
+  <si>
+    <t>(infant_voc)</t>
+  </si>
+  <si>
+    <t>(i_gaze_at_object)</t>
   </si>
   <si>
     <t>(m_gaze_at;i_gaze_away)</t>
   </si>
   <si>
-    <t>(mother-speech;i_gaze_at)</t>
-  </si>
-  <si>
-    <t>(i_gaze_at)</t>
-  </si>
-  <si>
-    <t>(infant_voc)</t>
-  </si>
-  <si>
-    <t>(m_gaze_at;mother-speech)</t>
+    <t>(m_gaze_at;mother-speech;i_gaze_at)</t>
   </si>
   <si>
     <t>(mo_smile;infant_voc)</t>
@@ -133,9 +145,6 @@
     <t>(m_gaze_at;infant_voc)</t>
   </si>
   <si>
-    <t>(mo_smile;mother-speech)</t>
-  </si>
-  <si>
     <t>(mo_smile;m_gaze_at;inf_smile)</t>
   </si>
   <si>
@@ -166,12 +175,12 @@
     <t>(mother-speech;i_gaze_away;m_gaze_at_object)</t>
   </si>
   <si>
+    <t>(inf_smile;i_gaze_away)</t>
+  </si>
+  <si>
     <t>(m_gaze_at;i_gaze_at;infant_voc;inf_smile)</t>
   </si>
   <si>
-    <t>(m_gaze_at;mother-speech;i_gaze_at)</t>
-  </si>
-  <si>
     <t>(mo_smile;m_gaze_at;infant_voc)</t>
   </si>
   <si>
@@ -187,13 +196,7 @@
     <t>(m_gaze_at;inf_smile;i_gaze_at_object)</t>
   </si>
   <si>
-    <t>(i_gaze_at_object)</t>
-  </si>
-  <si>
     <t>(mo_smile;m_gaze_away)</t>
-  </si>
-  <si>
-    <t>(mo_smile;i_gaze_away)</t>
   </si>
   <si>
     <t>(m_gaze_away;i_gaze_away)</t>
@@ -202,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -727,7 +730,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -741,15 +765,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
-  <autoFilter ref="A1:F202"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55F964-C216-6742-806D-06796A3A56BD}" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
+  <autoFilter ref="A1:F202" xr:uid="{97EF9A22-3538-2049-86D6-C1546FEFDE57}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="antecedent"/>
-    <tableColumn id="2" name="succedent"/>
-    <tableColumn id="3" name="p_con"/>
-    <tableColumn id="4" name="p_occ"/>
-    <tableColumn id="5" name="p_dur"/>
-    <tableColumn id="6" name="null_obs"/>
+    <tableColumn id="1" xr3:uid="{983EF9D3-28B3-3640-9024-69BE40CF82A5}" name="antecedent"/>
+    <tableColumn id="2" xr3:uid="{AC83E8F1-3B1F-1C40-A76F-13BCF778CE3F}" name="succedent"/>
+    <tableColumn id="3" xr3:uid="{96662D2E-16B9-F844-A6BA-B33279D42F3A}" name="p_con"/>
+    <tableColumn id="4" xr3:uid="{4A0CB7C2-86CA-6440-885D-EFC6E932ACFD}" name="p_occ"/>
+    <tableColumn id="5" xr3:uid="{2019FB68-223C-034E-9C2C-AC7CE60F666C}" name="p_dur"/>
+    <tableColumn id="6" xr3:uid="{1FF50BC8-5026-6349-96D6-FE83FEB451FF}" name="null_obs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1051,17 +1075,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1089,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1106,7 +1130,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1126,10 +1150,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>8.0645161290322495E-2</v>
@@ -1146,10 +1170,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1166,10 +1190,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1186,10 +1210,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1206,7 +1230,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1226,10 +1250,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>5.6603773584905599E-2</v>
@@ -1246,10 +1270,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1266,10 +1290,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1286,10 +1310,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1306,10 +1330,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0.33333333333333298</v>
@@ -1326,10 +1350,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1346,10 +1370,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1366,10 +1390,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1386,10 +1410,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1406,10 +1430,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1426,10 +1450,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1446,10 +1470,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1466,10 +1490,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>0.01</v>
@@ -1486,10 +1510,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1506,10 +1530,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>9.0909090909090898E-2</v>
@@ -1526,10 +1550,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1546,10 +1570,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1566,10 +1590,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1586,10 +1610,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1606,10 +1630,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1626,10 +1650,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1646,10 +1670,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>0.2</v>
@@ -1666,10 +1690,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>0.1</v>
@@ -1686,10 +1710,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1706,10 +1730,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>0.13793103448275801</v>
@@ -1726,10 +1750,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1746,10 +1770,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>3.8461538461538401E-2</v>
@@ -1766,10 +1790,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1786,10 +1810,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>2.3809523809523801E-2</v>
@@ -1806,10 +1830,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>1.47058823529411E-2</v>
@@ -1826,10 +1850,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1849,7 +1873,7 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1866,10 +1890,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1886,10 +1910,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>1.8867924528301799E-2</v>
@@ -1906,10 +1930,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1926,10 +1950,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>1.85185185185185E-2</v>
@@ -1946,10 +1970,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1966,10 +1990,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>1.6129032258064498E-2</v>
@@ -1986,10 +2010,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>0.25</v>
@@ -2006,10 +2030,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2026,10 +2050,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2046,10 +2070,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2066,10 +2090,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2089,7 +2113,7 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2106,10 +2130,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>0.35</v>
@@ -2126,10 +2150,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2146,10 +2170,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2166,10 +2190,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2186,7 +2210,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -2206,10 +2230,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2226,10 +2250,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2246,10 +2270,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2266,10 +2290,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>0.66666666666666596</v>
@@ -2286,10 +2310,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2306,10 +2330,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2326,10 +2350,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C64">
         <v>3.4482758620689599E-2</v>
@@ -2346,10 +2370,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>0.47</v>
@@ -2366,10 +2390,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2386,10 +2410,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2406,10 +2430,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2426,10 +2450,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2446,10 +2470,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2469,7 +2493,7 @@
         <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C71">
         <v>0.04</v>
@@ -2486,10 +2510,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2506,10 +2530,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2526,10 +2550,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2546,10 +2570,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2566,10 +2590,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2586,7 +2610,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -2606,10 +2630,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C78">
         <v>9.5238095238095205E-2</v>
@@ -2626,10 +2650,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2646,10 +2670,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2666,10 +2690,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2686,10 +2710,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C82">
         <v>0.31578947368421001</v>
@@ -2706,10 +2730,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2726,10 +2750,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2746,7 +2770,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -2766,10 +2790,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2786,10 +2810,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2806,10 +2830,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2826,10 +2850,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2846,10 +2870,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2866,10 +2890,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2886,10 +2910,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2906,10 +2930,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2926,10 +2950,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2949,7 +2973,7 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2966,10 +2990,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2986,7 +3010,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
@@ -3006,10 +3030,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3026,10 +3050,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3046,10 +3070,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3066,10 +3090,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3086,10 +3110,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3106,10 +3130,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C103">
         <v>3.2258064516128997E-2</v>
@@ -3126,10 +3150,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3146,10 +3170,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3166,10 +3190,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3186,10 +3210,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C107">
         <v>3.3333333333333298E-2</v>
@@ -3206,10 +3230,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3226,10 +3250,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3246,10 +3270,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3266,10 +3290,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C111">
         <v>1.20481927710843E-2</v>
@@ -3286,10 +3310,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3306,10 +3330,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3326,10 +3350,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3346,10 +3370,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3366,10 +3390,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3386,10 +3410,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C117">
         <v>0.17241379310344801</v>
@@ -3406,10 +3430,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3426,10 +3450,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C119">
         <v>1.2820512820512799E-2</v>
@@ -3446,10 +3470,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B120" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3466,10 +3490,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3489,7 +3513,7 @@
         <v>31</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3506,10 +3530,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3526,10 +3550,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3546,10 +3570,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3566,10 +3590,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C126">
         <v>1.4492753623188401E-2</v>
@@ -3586,10 +3610,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3606,10 +3630,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C128">
         <v>0.97</v>
@@ -3626,10 +3650,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3646,7 +3670,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
         <v>28</v>
@@ -3666,10 +3690,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3686,10 +3710,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3706,10 +3730,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3726,10 +3750,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C134">
         <v>0.14285714285714199</v>
@@ -3746,10 +3770,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3766,10 +3790,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3786,10 +3810,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C137">
         <v>0.2</v>
@@ -3806,10 +3830,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C138">
         <v>6.6666666666666596E-2</v>
@@ -3826,10 +3850,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3846,10 +3870,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B140" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3866,10 +3890,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3886,10 +3910,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3906,10 +3930,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C143">
         <v>1.5625E-2</v>
@@ -3926,10 +3950,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3946,10 +3970,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C145">
         <v>0.31818181818181801</v>
@@ -3966,10 +3990,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3986,7 +4010,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -4006,10 +4030,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -4026,10 +4050,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B149" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C149">
         <v>0.42857142857142799</v>
@@ -4046,10 +4070,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B150" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4066,10 +4090,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -4086,10 +4110,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -4106,10 +4130,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -4126,10 +4150,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -4146,10 +4170,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C155">
         <v>0.26415094339622602</v>
@@ -4166,10 +4190,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -4189,7 +4213,7 @@
         <v>31</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C157">
         <v>2.6315789473684199E-2</v>
@@ -4206,10 +4230,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C158">
         <v>0.11111111111111099</v>
@@ -4226,10 +4250,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B159" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4246,10 +4270,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -4266,10 +4290,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4286,10 +4310,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -4306,10 +4330,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4326,10 +4350,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4346,10 +4370,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4366,10 +4390,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4386,10 +4410,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C167">
         <v>0.16</v>
@@ -4406,10 +4430,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C168">
         <v>4.0540540540540501E-2</v>
@@ -4426,10 +4450,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -4446,10 +4470,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -4466,10 +4490,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -4486,10 +4510,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -4506,10 +4530,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4526,10 +4550,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C174">
         <v>0.01</v>
@@ -4546,10 +4570,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -4566,7 +4590,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
         <v>23</v>
@@ -4586,10 +4610,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C177">
         <v>0.95</v>
@@ -4606,10 +4630,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4626,10 +4650,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4646,10 +4670,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B180" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C180">
         <v>4.7619047619047603E-2</v>
@@ -4666,10 +4690,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4686,10 +4710,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4706,10 +4730,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -4729,7 +4753,7 @@
         <v>31</v>
       </c>
       <c r="B184" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4746,10 +4770,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4766,10 +4790,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4786,10 +4810,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B187" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4809,7 +4833,7 @@
         <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4826,10 +4850,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B189" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4846,10 +4870,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B190" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4866,10 +4890,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -4886,10 +4910,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -4906,10 +4930,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -4926,10 +4950,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -4949,7 +4973,7 @@
         <v>31</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -4966,10 +4990,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -4986,10 +5010,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B197" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -5006,10 +5030,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B198" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C198">
         <v>0.445945945945945</v>
@@ -5026,10 +5050,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -5046,10 +5070,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B200" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -5066,10 +5090,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C201">
         <v>0.24175824175824101</v>
@@ -5086,10 +5110,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C202">
         <v>0</v>

--- a/final_data/xlsx/results_850_sig.xlsx
+++ b/final_data/xlsx/results_850_sig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelruland/Documents/studium_paderborn/Bachelorarbeit/BA_thesis/final_data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E4553-0976-E144-B464-E112C60A1C77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01616798-BEAC-0446-B402-70287A301B29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19240" yWindow="0" windowWidth="19160" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,7 +730,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1078,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5129,6 +5139,23 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:E202">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F202">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
